--- a/INTLINE/data/534/MOSPI/NAS/KEYAGG_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/NAS/KEYAGG_historical.xlsx
@@ -1,51 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="KEYAGG" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KEYAGG" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>NNDI</t>
-  </si>
-  <si>
-    <t>Gross Saving</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -79,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -376,662 +353,673 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:72">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BP1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BQ1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BR1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BS1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BT1" s="1" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NNDI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>9568.21544489631</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>10182.9489180242</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>10005.6051069352</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>11001.1781882773</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>10439.233430968</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>10650.4906301287</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>12732.2201513462</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>13046.0717706853</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>14539.3375159572</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>15290.4714152528</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>16707.8461809285</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>17643.3712362354</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>18950.6851035485</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>21818.508233725</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>25462.2849527361</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>26793.2806393463</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>30235.4226096578</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>35469.2062335535</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>37569.3101978991</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>41249.7510871693</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>43720.7222931354</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>46773.964219706</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>51506.8878784733</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>62784.3223894704</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>73806.9787982624</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>78941.774013074</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>85227.602022148</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>97199.1699518283</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>105113.184042529</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>115021.078345831</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>137727.092819342</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>160456.339588067</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>178244.178483123</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>208120.59935916</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>231941.19005609</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>259671.852843121</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>289911.382101626</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>328038.178866149</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>388251.276475135</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>444361.162169179</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>517676.918507358</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>594435.477930031</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>683947.843132469</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>794407.986910554</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>939792.851804207</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>1097612.70571078</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>1291317.66228327</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>1423344.8274593</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>1630918.39935873</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>1832435.65192599</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>1960958.67450034</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>2130368.78563775</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>2298335.86525678</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>2586527.974627</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>2921968.67102965</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>3334605.31905658</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>3917676.10250147</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>4536715.45329013</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>5091044.9259641</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>5885238.81188822</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>6998721.45166646</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>8047231.7706</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>9116426.335999999</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>10293580.8668</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>11383391.9522</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>12575480.5039</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>14003374.7992</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>15546158.17064394</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>17198384.63578756</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>18534664.81590332</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>18028896</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Gross Saving</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>956.02415703561</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1031.22277359794</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>925.2055056889729</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>917.240764008263</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1074.85480795547</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1386.828318803</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>1650.87268438115</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>1439.5972893102</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>1407.31366739889</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>1756.72902100694</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>1997.88359015925</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>2117.37208919176</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>2506.73334711782</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>2782.8708868233</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>3208.17554030108</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>3941.30142076552</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>4403.14428901351</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>4511.06626691479</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>4730.09682138246</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>6116.45414384904</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>6494.23434063629</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>7351.494900584</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>7599.43571890912</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>10983.7415191228</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>12803.0104003951</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>14169.0409496663</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>16585.5789293148</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>19300.7899383123</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>22879.9165813536</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>23770.9216207116</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>25307.0117020208</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>28989.2021462937</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>33315.7072383454</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>38009.895896443</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>44864.4533202383</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>52249.4210860965</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>57825.4259729837</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>73488.26633078061</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>87868.1393019664</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>107340.766323193</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>134420.217970864</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>143175.853815786</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>164940.103385413</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>194277.820442779</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>247176.808541186</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>288645.913339657</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>318125.580510376</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>379062.408429144</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>420621.905258817</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>523256.062786402</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>531523.413853</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>603109.50640431</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>668327.852906808</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>826056.454566443</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>1108167.08862199</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>1278386.78116</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>1485990.65603855</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>1852642.77634513</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>1986268.44351468</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>2292685.71994915</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>2817807.2151937</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>3026836.9393</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>3369201.5357</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>3608192.7833</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>4019957.209</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>4282259.472</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>4825113.2657</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>5480741.010731375</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>5776960.054205638</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>6385980.691549685</v>
       </c>
+      <c r="BT3" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/INTLINE/data/534/MOSPI/NAS/KEYAGG_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/NAS/KEYAGG_historical.xlsx
@@ -1,37 +1,264 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KEYAGG" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="KEYAGG" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>NNDI</t>
+  </si>
+  <si>
+    <t>Gross Saving</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +273,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +292,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,673 +589,662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BT3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1950</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1951</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1952</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>1953</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>1954</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>1955</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>1956</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>1957</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>1958</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>1959</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>1960</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>1961</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>1962</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>1963</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>1964</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>1965</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>1966</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>1967</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>1968</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>1969</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>1970</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>1971</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>1972</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>1973</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>1974</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>1975</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>1976</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>1977</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>1978</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>1979</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>1980</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>1981</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>1982</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>1983</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>1984</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>1985</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>1986</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>1987</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>1988</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>1989</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>1990</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>1991</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>1992</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>1993</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>1994</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>1995</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>1996</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>1997</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>1998</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>1999</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="BA1" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="BB1" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="BC1" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="BD1" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="BE1" s="1" t="n">
-        <v>2005</v>
-      </c>
-      <c r="BF1" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="BG1" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="BH1" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="BI1" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="BJ1" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="BK1" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="BL1" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="BM1" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="BN1" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="BO1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="BP1" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="BT1" s="1" t="n">
-        <v>2020</v>
+    <row r="1" spans="1:72">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>NNDI</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:72">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
         <v>9568.21544489631</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>10182.9489180242</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10005.6051069352</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>11001.1781882773</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>10439.233430968</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>10650.4906301287</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>12732.2201513462</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>13046.0717706853</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>14539.3375159572</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>15290.4714152528</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>16707.8461809285</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>17643.3712362354</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>18950.6851035485</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>21818.508233725</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>25462.2849527361</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>26793.2806393463</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>30235.4226096578</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>35469.2062335535</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>37569.3101978991</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>41249.7510871693</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>43720.7222931354</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>46773.964219706</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>51506.8878784733</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>62784.3223894704</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>73806.9787982624</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>78941.774013074</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>85227.602022148</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>97199.1699518283</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>105113.184042529</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>115021.078345831</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>137727.092819342</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>160456.339588067</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>178244.178483123</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>208120.59935916</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>231941.19005609</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>259671.852843121</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>289911.382101626</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>328038.178866149</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>388251.276475135</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>444361.162169179</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>517676.918507358</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>594435.477930031</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>683947.843132469</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>794407.986910554</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>939792.851804207</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>1097612.70571078</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>1291317.66228327</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>1423344.8274593</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>1630918.39935873</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>1832435.65192599</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>1960958.67450034</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>2130368.78563775</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>2298335.86525678</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>2586527.974627</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>2921968.67102965</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>3334605.31905658</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>3917676.10250147</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>4536715.45329013</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>5091044.9259641</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>5885238.81188822</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>6998721.45166646</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>8047231.7706</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>9116426.335999999</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>10293580.8668</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>11383391.9522</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>12575480.5039</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>14003374.7992</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>15546158.17064394</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>17198384.63578756</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>18534664.81590332</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>18028896</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Gross Saving</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:72">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
         <v>956.02415703561</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1031.22277359794</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>925.2055056889729</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>917.240764008263</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1074.85480795547</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1386.828318803</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1650.87268438115</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1439.5972893102</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1407.31366739889</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1756.72902100694</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>1997.88359015925</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>2117.37208919176</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>2506.73334711782</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>2782.8708868233</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>3208.17554030108</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>3941.30142076552</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>4403.14428901351</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>4511.06626691479</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>4730.09682138246</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>6116.45414384904</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>6494.23434063629</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>7351.494900584</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>7599.43571890912</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>10983.7415191228</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>12803.0104003951</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>14169.0409496663</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>16585.5789293148</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>19300.7899383123</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>22879.9165813536</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>23770.9216207116</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>25307.0117020208</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>28989.2021462937</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>33315.7072383454</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>38009.895896443</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>44864.4533202383</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>52249.4210860965</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>57825.4259729837</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>73488.26633078061</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>87868.1393019664</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>107340.766323193</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>134420.217970864</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>143175.853815786</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>164940.103385413</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>194277.820442779</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>247176.808541186</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>288645.913339657</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>318125.580510376</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>379062.408429144</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>420621.905258817</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>523256.062786402</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>531523.413853</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>603109.50640431</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>668327.852906808</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>826056.454566443</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>1108167.08862199</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>1278386.78116</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>1485990.65603855</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>1852642.77634513</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>1986268.44351468</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>2292685.71994915</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>2817807.2151937</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>3026836.9393</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>3369201.5357</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>3608192.7833</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>4019957.209</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>4282259.472</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>4825113.2657</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>5480741.010731375</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>5776960.054205638</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>6385980.691549685</v>
       </c>
-      <c r="BT3" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>